--- a/downloaded_files/STRS324_Tutorial-35114.xlsx
+++ b/downloaded_files/STRS324_Tutorial-35114.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman mohammed mostafa eissa mohammed eissa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن غريب احمد محمد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDEL RAHMAN GHAREB AHAMED MOHAMED HASANEIN</x:t>
   </x:si>
   <x:si>
     <x:t>1230212</x:t>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1010,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4213738079</x:v>
+        <x:v>45928.5730334491</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4152352199</x:v>
+        <x:v>45907.4213738079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4169468403</x:v>
+        <x:v>45907.4152352199</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4194854167</x:v>
+        <x:v>45907.4169468403</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45907.4194854167</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.6204011921</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4152105671</x:v>
+        <x:v>45909.6204011921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1228,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45909.4152105671</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
